--- a/formshare/tests/resources/forms/form08_OK.xlsx
+++ b/formshare/tests/resources/forms/form08_OK.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">income</t>
   </si>
   <si>
-    <t xml:space="preserve">Total income</t>
+    <t xml:space="preserve">Income</t>
   </si>
   <si>
     <t xml:space="preserve">select_one crop</t>
@@ -280,28 +280,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -315,10 +315,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="15" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -447,7 +445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -459,13 +457,12 @@
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -625,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -635,13 +632,12 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/formshare/tests/resources/forms/form08_OK.xlsx
+++ b/formshare/tests/resources/forms/form08_OK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Just a test</t>
@@ -297,11 +300,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -435,8 +438,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -457,7 +460,7 @@
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
@@ -612,8 +615,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -628,11 +631,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
@@ -647,20 +650,25 @@
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
